--- a/w1/SC2x_W1L2_NERD_smaller_version.xlsx
+++ b/w1/SC2x_W1L2_NERD_smaller_version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caroline.c.barbosa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/caroline_c_barbosa_accenture_com/Documents/Desktop/06_cursos/SCM/SC2x/w1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2278DC-6F2B-4AD3-B424-7D16E5C3492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{FA2278DC-6F2B-4AD3-B424-7D16E5C3492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F35610C-F081-408C-89DE-168EF7E53C22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="1" xr2:uid="{FED71BA2-C9F5-41D0-B4C4-4B1033A3E17F}"/>
+    <workbookView xWindow="2712" yWindow="2856" windowWidth="17484" windowHeight="10296" activeTab="1" xr2:uid="{FED71BA2-C9F5-41D0-B4C4-4B1033A3E17F}"/>
   </bookViews>
   <sheets>
     <sheet name="NERD2" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">NERD2!$B$1</definedName>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B1" s="34">
         <f>SUMPRODUCT(C17:C21,D17:D21)+SUMPRODUCT(C6:N10,T6:AE10)*$B$2</f>
-        <v>66781</v>
+        <v>89478</v>
       </c>
       <c r="F1" s="31"/>
       <c r="G1" t="s">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>425.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="8">
-        <v>181.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="O6" s="26">
         <f>SUM(C6:N6)</f>
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>16</v>
@@ -2141,16 +2141,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>86.000000000000014</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <v>66.000000000000014</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="O7" s="26">
         <f t="shared" ref="O7:O10" si="0">SUM(C7:N7)</f>
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>16</v>
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <v>320.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="O8" s="26">
         <f t="shared" si="0"/>
-        <v>348.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>16</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -2345,14 +2345,14 @@
         <v>0</v>
       </c>
       <c r="M9" s="8">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="26">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>16</v>
@@ -2405,44 +2405,44 @@
         <v>11</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>425.00000000000011</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>86.000000000000057</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="J10" s="8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>320.00000000000006</v>
       </c>
       <c r="M10" s="8">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="N10" s="8">
-        <v>2.8421709430404007E-14</v>
+        <v>181.99999999999997</v>
       </c>
       <c r="O10" s="26">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>1746.0000000000002</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>16</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C11" s="26">
         <f>SUM(C6:C10)</f>
-        <v>425.00000000000006</v>
+        <v>425.00000000000011</v>
       </c>
       <c r="D11" s="26">
         <f t="shared" ref="D11:N11" si="1">SUM(D6:D10)</f>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
-        <v>86.000000000000014</v>
+        <v>86.000000000000057</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="1"/>
@@ -2528,11 +2528,11 @@
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
-        <v>66.000000000000014</v>
+        <v>66</v>
       </c>
       <c r="L11" s="26">
         <f t="shared" si="1"/>
-        <v>320.00000000000011</v>
+        <v>320.00000000000006</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" si="1"/>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="N11" s="26">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>181.99999999999997</v>
       </c>
       <c r="O11" s="23"/>
     </row>
@@ -2650,14 +2650,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>10000</v>
       </c>
       <c r="E17" s="29">
         <f>O6-$O$13*C17</f>
-        <v>-1139</v>
+        <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>16</v>
@@ -2671,14 +2671,14 @@
         <v>5</v>
       </c>
       <c r="C18" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>10000</v>
       </c>
       <c r="E18" s="29">
         <f t="shared" ref="E18:E21" si="2">O7-$O$13*C18</f>
-        <v>-1441</v>
+        <v>0</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>16</v>
@@ -2692,14 +2692,14 @@
         <v>9</v>
       </c>
       <c r="C19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
         <v>10000</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="2"/>
-        <v>-1398</v>
+        <v>0</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>16</v>
@@ -2713,14 +2713,14 @@
         <v>10</v>
       </c>
       <c r="C20" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>10000</v>
       </c>
       <c r="E20" s="29">
         <f t="shared" si="2"/>
-        <v>-1260</v>
+        <v>0</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>16</v>
@@ -2734,14 +2734,14 @@
         <v>11</v>
       </c>
       <c r="C21" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
         <v>10000</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" si="2"/>
-        <v>2.8421709430404007E-14</v>
+        <v>0</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>16</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C22" s="17">
         <f>SUM(C17:C21)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C24" s="17">
         <f>C22</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>19</v>
@@ -2780,13 +2780,13 @@
       </c>
       <c r="C25" s="17">
         <f>C22</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="P29" s="30">
         <f>SUMPRODUCT(C6:N10,T6:AE10)/O13</f>
-        <v>15.338487972508592</v>
+        <v>45.520045819014889</v>
       </c>
       <c r="Q29" s="27" t="s">
         <v>16</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="P33" s="30">
         <f>SUMPRODUCT(C29:N33,C6:N10)/O13</f>
-        <v>0.9032073310423826</v>
+        <v>0.70618556701030943</v>
       </c>
       <c r="Q33" s="27" t="s">
         <v>19</v>
